--- a/biology/Botanique/Bouquet_de_fleurs/Bouquet_de_fleurs.xlsx
+++ b/biology/Botanique/Bouquet_de_fleurs/Bouquet_de_fleurs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un bouquet est un assemblage de fleurs coupées, feuilles et rameaux, réunis par leur tige et disposés de façon à composer une harmonie de formes, de couleurs, de parfums. Il est conçu pour être facilement transporté, ce qui le distingue des autres compositions florales. Il peut être de forme variée, par exemple rond, conique ou en gerbe, et adopter un style particulier, par exemple le bouquet champêtre ou structuré.
 Le bouquet sert d'accessoire décoratif dans certaines circonstances, par exemple le bouquet de la mariée et les fleurs à la boutonnière, ou bien s'offre en cadeau. Il est proposé également comme décor d'intérieur, pour garnir un vase.
@@ -514,7 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Formes
+          <t>Formes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Bouquet flou
 			Bouquet rond
 			Bouquet long
@@ -523,13 +541,85 @@
 			Bouquet en cascade, retombant
 			Bouquets de poignet ou de corsage
 			Boutonnière
-Présentation
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bouquet_de_fleurs</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bouquet_de_fleurs</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Technique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Bouquets de grossiste, à Hong-Kong
 			Bouquets en vrac chez le fleuriste
 			Bouquet dans son emballage cadeau
 			Bouquet de mariée
 			Bouquet conservé dans un vase d'eau
-Styles
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bouquet_de_fleurs</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bouquet_de_fleurs</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Technique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Styles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Bouquet champêtre (du Texas)
 			Bouquet structuré
 			Bouquet fantaisie (ici avec des aliments)
@@ -542,33 +632,39 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Bouquet_de_fleurs</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Bouquet_de_fleurs</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Aspects culturels</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Utilisation
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Enfants offrant un bouquet de fleurs et une composition florale dans un panier
 			Bouquet de violettes en parure, symbole de modestie et d'amour secret
 			Bouquet d'amoureux
@@ -577,7 +673,47 @@
 			Bouquet d'hommage officiel
 			Table de commémoration couverte de bouquets de fleurs, Japon
 			Enfants avec brassée et bouquet de tulipes pour la fête des Mères (archives nationales, Pays-Bas, 1957)
-Mariage
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bouquet_de_fleurs</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bouquet_de_fleurs</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Aspects culturels</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Mariage</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Mariage avec bouquet pour la mariée et boutonnière pour le marié, Irlande, 1908
 			Mariés avec bouquets et colliers de fleurs, Singapour, 2018
 			Bouquets de mariage, faculté d'horticulture en Pologne, 2005
@@ -586,12 +722,84 @@
 			Porte bouquet
 			Bouquet et couronne de mariée, sous globe
 			Bouquets de mariage votifs
-Bouquets artificiels
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bouquet_de_fleurs</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bouquet_de_fleurs</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Aspects culturels</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Bouquets artificiels</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Bouquet de corsage, artificiel
 			Rose d'or
 			Bouquet comestible
 			Gâteau en forme de bouquet
-Bouquets dans l'art
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bouquet_de_fleurs</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bouquet_de_fleurs</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Aspects culturels</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Bouquets dans l'art</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Bouquet de lotus, fleurs et canards (Égypte antique), bas-relief, Brooklyn Museum.
 			Nature morte avec des fleurs (vers 1890), Jenny Villebesseyx.
 			Quel mazzolin di fiori (Ce bouquet de fleurs en français, 1904), chanson populaire italienne.
